--- a/biology/Botanique/Ophioglossidae/Ophioglossidae.xlsx
+++ b/biology/Botanique/Ophioglossidae/Ophioglossidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ophioglossidées (Ophioglossidae) sont une sous-classe de plantes vasculaires monilophytes qui regroupe les psilotes (ordre des Psilotales) et les fougères de l'ordre des Ophioglossales qui ont notamment en commun d'être eusporangiées.
 Dans certaines classifications, ce regroupement peut être la classe des Psilotopsides (Psilotopsida).
@@ -512,7 +524,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>sous-classe Ophioglossidae
 ordre Ophioglossales
@@ -556,9 +570,11 @@
           <t>Phylogénie au sein des Ptéridophytes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des Ptéridophytes actuelles d'après le Pteridophyte Phylogeny Group (2016)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des Ptéridophytes actuelles d'après le Pteridophyte Phylogeny Group (2016) :
 </t>
         </is>
       </c>
